--- a/docs/collections/uparl/metadata/data.xlsx
+++ b/docs/collections/uparl/metadata/data.xlsx
@@ -3161,7 +3161,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/167842/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtB54HNp4pA98VGUgyg7T6eDzwSmvqMeHw%EF%BC%8FT3oOkg1mU%EF%BC%8F%EF%BC%8FP2ScTkHJltp%EF%BC%8BavldOu1TA%3D</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca510ec2200c00d013b59d4218f536b5b06c5a858c2ed96eafeffbadee7d3c8864d7b588cba88ec57073c503bcbdaf86a2f8eaa4cdacaa6fed3be8e8b21b793d9dce8f519c5392182284c415a24e33e4e59e2170d189332f377ee23ffe002b0923d2</t>
   </si>
   <si>
     <t>論語諺解 一 [B60567-01]</t>

--- a/docs/collections/uparl/metadata/data.xlsx
+++ b/docs/collections/uparl/metadata/data.xlsx
@@ -392,7 +392,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/uparl/document/1519c399-d096-4f06-b8a0-f6fc0c14deaa</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/186421/28349512389_9338c7c25a_o.jpg</t>

--- a/docs/collections/uparl/metadata/data.xlsx
+++ b/docs/collections/uparl/metadata/data.xlsx
@@ -3158,7 +3158,7 @@
     <t>ASIA0004-00</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/167842/manifest</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4766a434-369e-4c07-8f28-39dc0989f19b/manifest</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca510ec2200c00d013b59d4218f536b5b06c5a858c2ed96eafeffbadee7d3c8864d7b588cba88ec57073c503bcbdaf86a2f8eaa4cdacaa6fed3be8e8b21b793d9dce8f519c5392182284c415a24e33e4e59e2170d189332f377ee23ffe002b0923d2</t>

--- a/docs/collections/uparl/metadata/data.xlsx
+++ b/docs/collections/uparl/metadata/data.xlsx
@@ -3158,7 +3158,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4766a434-369e-4c07-8f28-39dc0989f19b/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca510ec2200c00d013b59d4218f536b5b06c5a858c2ed96eafeffbadee7d3c8864d7b588cba88ec57073c503bcbdaf86a2f8eaa4cdacaa6fed3be8e8b21b793d9dce8f519c5392182284c415a24e33e4e59e2170d189332f377ee23ffe002b0923d2</t>
+    <t>https://w3id.org/dhj/i3sa/https://archdataset.dl.itc.u-tokyo.ac.jp/collections/uparl/text/xml/4766a434-369e-4c07-8f28-39dc0989f19b.xml</t>
   </si>
   <si>
     <t>論語諺解 一 [B60567-01]</t>
